--- a/Traveloka_DataAutomation_Portal_Cebu/Final-PaymentReceipt.xlsx
+++ b/Traveloka_DataAutomation_Portal_Cebu/Final-PaymentReceipt.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <x:workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kalyana\dataautomation_personal\Traveloka_DataAutomation_Portal_Cebu\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D1D490-21F3-4006-8F4F-E1B48AB45D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView firstSheet="0" activeTab="0"/>
+    <x:workbookView xWindow="3960" yWindow="1932" windowWidth="21588" windowHeight="10644" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="PaymentReceipt" sheetId="2" r:id="rId2"/>
+    <x:sheet name="PaymentReceipt" sheetId="2" r:id="rId1"/>
   </x:sheets>
   <x:definedNames/>
-  <x:calcPr calcId="125725"/>
+  <x:calcPr calcId="0"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
   <x:si>
     <x:t>Agent Code</x:t>
   </x:si>
@@ -64,10 +71,19 @@
     <x:t>Payment Text</x:t>
   </x:si>
   <x:si>
-    <x:t>Passenger Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Route</x:t>
+    <x:t>Passenger First Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Passenger Last Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Route From</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Route To</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Date</x:t>
   </x:si>
   <x:si>
     <x:t>1FTINV1</x:t>
@@ -95,6 +111,9 @@
   </x:si>
   <x:si>
     <x:t>USD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10-03-2024</x:t>
   </x:si>
   <x:si>
     <x:t>Agung budi</x:t>
@@ -550,13 +569,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="1" x14ac:knownFonts="1">
     <x:font>
-      <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
@@ -572,38 +590,32 @@
     </x:fill>
   </x:fills>
   <x:borders count="1">
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </x:cellStyleXfs>
   <x:cellXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </x:ext>
+  </x:extLst>
 </x:styleSheet>
 </file>
 
@@ -891,17 +903,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T101"/>
+  <x:dimension ref="A1:U1"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="A2" sqref="A2"/>
+    </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:cols>
+    <x:col min="1" max="1" width="10.332031" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="11.332031" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="10.777344" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="13.664062" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="23.21875" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="6" max="6" width="22.332031" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="7" max="7" width="12.777344" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="8" max="8" width="10.109375" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="9" max="9" width="17.664062" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="10" max="10" width="12.886719" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="11" max="11" width="14.554688" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="12" max="12" width="21.332031" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="13" max="13" width="15.664062" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="14" max="14" width="22.109375" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="15" max="15" width="16.441406" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="16" max="16" width="12.109375" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="17" max="17" width="18.886719" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="18" max="18" width="18.441406" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="19" max="19" width="10.554688" style="0" bestFit="1" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:20">
+    <x:row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -953,5055 +988,5364 @@
       <x:c r="Q1" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
+      <x:c r="R1" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
       <x:c r="S1" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:20">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="T1" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="U1" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:21">
       <x:c r="A2" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
         <x:v>260638297</x:v>
       </x:c>
       <x:c r="I2" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J2" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K2" s="0" t="n">
         <x:v>7048</x:v>
       </x:c>
       <x:c r="L2" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M2" s="0" t="n">
         <x:v>125.34</x:v>
       </x:c>
       <x:c r="N2" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O2" s="0" t="n">
         <x:v>125.34</x:v>
       </x:c>
-    </x:row>
-    <x:row r="3" spans="1:20">
+      <x:c r="U2" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:21">
       <x:c r="A3" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
         <x:v>260638297</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J3" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K3" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L3" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M3" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N3" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O3" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q3" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="R3" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="S3" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T3" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:20">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="U3" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:21">
       <x:c r="A4" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H4" s="0" t="n">
         <x:v>260681869</x:v>
       </x:c>
       <x:c r="I4" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J4" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="K4" s="0" t="n">
         <x:v>287</x:v>
       </x:c>
       <x:c r="L4" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M4" s="0" t="n">
         <x:v>287</x:v>
       </x:c>
       <x:c r="N4" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O4" s="0" t="n">
         <x:v>287</x:v>
       </x:c>
-    </x:row>
-    <x:row r="5" spans="1:20">
+      <x:c r="U4" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:21">
       <x:c r="A5" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H5" s="0" t="n">
         <x:v>260681869</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J5" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="K5" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L5" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M5" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N5" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O5" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q5" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="R5" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="S5" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="T5" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="S5" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="T5" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:20">
+      <x:c r="U5" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:21">
       <x:c r="A6" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
         <x:v>260650144</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J6" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K6" s="0" t="n">
         <x:v>7048</x:v>
       </x:c>
       <x:c r="L6" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M6" s="0" t="n">
         <x:v>125.34</x:v>
       </x:c>
       <x:c r="N6" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O6" s="0" t="n">
         <x:v>125.34</x:v>
       </x:c>
-    </x:row>
-    <x:row r="7" spans="1:20">
+      <x:c r="U6" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:21">
       <x:c r="A7" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H7" s="0" t="n">
         <x:v>260650144</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J7" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K7" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L7" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M7" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N7" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O7" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q7" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="R7" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="S7" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T7" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:20">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="U7" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:21">
       <x:c r="A8" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H8" s="0" t="n">
         <x:v>260660805</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J8" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K8" s="0" t="n">
         <x:v>8948</x:v>
       </x:c>
       <x:c r="L8" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M8" s="0" t="n">
         <x:v>159.12</x:v>
       </x:c>
       <x:c r="N8" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O8" s="0" t="n">
         <x:v>159.12</x:v>
       </x:c>
-    </x:row>
-    <x:row r="9" spans="1:20">
+      <x:c r="U8" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:21">
       <x:c r="A9" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H9" s="0" t="n">
         <x:v>260660805</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J9" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K9" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L9" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M9" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N9" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O9" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q9" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="R9" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="S9" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T9" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:20">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="U9" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:21">
       <x:c r="A10" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H10" s="0" t="n">
         <x:v>260661122</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J10" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K10" s="0" t="n">
         <x:v>2362.12</x:v>
       </x:c>
       <x:c r="L10" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M10" s="0" t="n">
         <x:v>42.01</x:v>
       </x:c>
       <x:c r="N10" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O10" s="0" t="n">
         <x:v>42.01</x:v>
       </x:c>
-    </x:row>
-    <x:row r="11" spans="1:20">
+      <x:c r="U10" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:21">
       <x:c r="A11" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H11" s="0" t="n">
         <x:v>260661122</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J11" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K11" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L11" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M11" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N11" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O11" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q11" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="R11" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="S11" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="T11" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:20">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="U11" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:21">
       <x:c r="A12" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H12" s="0" t="n">
         <x:v>260648794</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J12" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K12" s="0" t="n">
         <x:v>7048</x:v>
       </x:c>
       <x:c r="L12" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M12" s="0" t="n">
         <x:v>125.34</x:v>
       </x:c>
       <x:c r="N12" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O12" s="0" t="n">
         <x:v>125.34</x:v>
       </x:c>
-    </x:row>
-    <x:row r="13" spans="1:20">
+      <x:c r="U12" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:21">
       <x:c r="A13" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H13" s="0" t="n">
         <x:v>260648794</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J13" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K13" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L13" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M13" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N13" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O13" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q13" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="R13" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="S13" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T13" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:20">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="U13" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:21">
       <x:c r="A14" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H14" s="0" t="n">
         <x:v>260676102</x:v>
       </x:c>
       <x:c r="I14" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J14" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K14" s="0" t="n">
         <x:v>4732</x:v>
       </x:c>
       <x:c r="L14" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M14" s="0" t="n">
         <x:v>84.15</x:v>
       </x:c>
       <x:c r="N14" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O14" s="0" t="n">
         <x:v>84.15</x:v>
       </x:c>
-    </x:row>
-    <x:row r="15" spans="1:20">
+      <x:c r="U14" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:21">
       <x:c r="A15" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
         <x:v>260676102</x:v>
       </x:c>
       <x:c r="I15" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J15" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L15" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N15" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q15" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="R15" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="S15" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T15" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:20">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="U15" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:21">
       <x:c r="A16" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
         <x:v>260669722</x:v>
       </x:c>
       <x:c r="I16" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J16" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K16" s="0" t="n">
         <x:v>19687.83</x:v>
       </x:c>
       <x:c r="L16" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M16" s="0" t="n">
         <x:v>350.11</x:v>
       </x:c>
       <x:c r="N16" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O16" s="0" t="n">
         <x:v>350.11</x:v>
       </x:c>
-    </x:row>
-    <x:row r="17" spans="1:20">
+      <x:c r="U16" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:21">
       <x:c r="A17" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G17" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
         <x:v>260669722</x:v>
       </x:c>
       <x:c r="I17" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J17" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K17" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L17" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M17" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N17" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O17" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q17" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="R17" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="S17" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T17" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:20">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="U17" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:21">
       <x:c r="A18" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H18" s="0" t="n">
         <x:v>260669722</x:v>
       </x:c>
       <x:c r="I18" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J18" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K18" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L18" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M18" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N18" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O18" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q18" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="R18" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="S18" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="T18" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:20">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="U18" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:21">
       <x:c r="A19" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H19" s="0" t="n">
         <x:v>260646201</x:v>
       </x:c>
       <x:c r="I19" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J19" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K19" s="0" t="n">
         <x:v>4455.24</x:v>
       </x:c>
       <x:c r="L19" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M19" s="0" t="n">
         <x:v>79.23</x:v>
       </x:c>
       <x:c r="N19" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O19" s="0" t="n">
         <x:v>79.23</x:v>
       </x:c>
-    </x:row>
-    <x:row r="20" spans="1:20">
+      <x:c r="U19" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:21">
       <x:c r="A20" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H20" s="0" t="n">
         <x:v>260646201</x:v>
       </x:c>
       <x:c r="I20" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J20" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K20" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L20" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M20" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N20" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O20" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q20" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="R20" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="S20" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="T20" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:20">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="U20" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:21">
       <x:c r="A21" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F21" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G21" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H21" s="0" t="n">
         <x:v>260646201</x:v>
       </x:c>
       <x:c r="I21" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J21" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K21" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L21" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M21" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N21" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O21" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q21" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="R21" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="S21" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T21" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:20">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="U21" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:21">
       <x:c r="A22" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F22" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H22" s="0" t="n">
         <x:v>260654217</x:v>
       </x:c>
       <x:c r="I22" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J22" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="K22" s="0" t="n">
         <x:v>172</x:v>
       </x:c>
       <x:c r="L22" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M22" s="0" t="n">
         <x:v>172</x:v>
       </x:c>
       <x:c r="N22" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O22" s="0" t="n">
         <x:v>172</x:v>
       </x:c>
-    </x:row>
-    <x:row r="23" spans="1:20">
+      <x:c r="U22" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:21">
       <x:c r="A23" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F23" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G23" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H23" s="0" t="n">
         <x:v>260654217</x:v>
       </x:c>
       <x:c r="I23" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J23" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="K23" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L23" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M23" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N23" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O23" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q23" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="R23" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="S23" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="T23" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="S23" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="T23" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:20">
+      <x:c r="U23" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:21">
       <x:c r="A24" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F24" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G24" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H24" s="0" t="n">
         <x:v>260669592</x:v>
       </x:c>
       <x:c r="I24" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J24" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K24" s="0" t="n">
         <x:v>7048</x:v>
       </x:c>
       <x:c r="L24" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M24" s="0" t="n">
         <x:v>125.34</x:v>
       </x:c>
       <x:c r="N24" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O24" s="0" t="n">
         <x:v>125.34</x:v>
       </x:c>
-    </x:row>
-    <x:row r="25" spans="1:20">
+      <x:c r="U24" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:21">
       <x:c r="A25" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F25" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G25" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H25" s="0" t="n">
         <x:v>260669592</x:v>
       </x:c>
       <x:c r="I25" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J25" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K25" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L25" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M25" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N25" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O25" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q25" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="R25" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="S25" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T25" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:20">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="U25" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:21">
       <x:c r="A26" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F26" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G26" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H26" s="0" t="n">
         <x:v>260663239</x:v>
       </x:c>
       <x:c r="I26" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J26" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K26" s="0" t="n">
         <x:v>7335.56</x:v>
       </x:c>
       <x:c r="L26" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M26" s="0" t="n">
         <x:v>130.45</x:v>
       </x:c>
       <x:c r="N26" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O26" s="0" t="n">
         <x:v>130.45</x:v>
       </x:c>
-    </x:row>
-    <x:row r="27" spans="1:20">
+      <x:c r="U26" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:21">
       <x:c r="A27" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F27" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G27" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H27" s="0" t="n">
         <x:v>260663239</x:v>
       </x:c>
       <x:c r="I27" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J27" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K27" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L27" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M27" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N27" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O27" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q27" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="R27" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="S27" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T27" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:20">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="U27" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:21">
       <x:c r="A28" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F28" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G28" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H28" s="0" t="n">
         <x:v>260663239</x:v>
       </x:c>
       <x:c r="I28" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J28" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K28" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L28" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M28" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N28" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O28" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q28" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="R28" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="S28" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="T28" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:20">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="U28" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:21">
       <x:c r="A29" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F29" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G29" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H29" s="0" t="n">
         <x:v>260646728</x:v>
       </x:c>
       <x:c r="I29" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J29" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="K29" s="0" t="n">
         <x:v>496</x:v>
       </x:c>
       <x:c r="L29" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M29" s="0" t="n">
         <x:v>104.85</x:v>
       </x:c>
       <x:c r="N29" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O29" s="0" t="n">
         <x:v>104.85</x:v>
       </x:c>
-    </x:row>
-    <x:row r="30" spans="1:20">
+      <x:c r="U29" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:21">
       <x:c r="A30" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F30" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G30" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H30" s="0" t="n">
         <x:v>260646728</x:v>
       </x:c>
       <x:c r="I30" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J30" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="K30" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L30" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M30" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N30" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O30" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q30" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="R30" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="S30" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="T30" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:20">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="U30" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:21">
       <x:c r="A31" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E31" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F31" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G31" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H31" s="0" t="n">
         <x:v>260664294</x:v>
       </x:c>
       <x:c r="I31" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J31" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="K31" s="0" t="n">
         <x:v>1300</x:v>
       </x:c>
       <x:c r="L31" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M31" s="0" t="n">
         <x:v>35.67</x:v>
       </x:c>
       <x:c r="N31" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O31" s="0" t="n">
         <x:v>35.67</x:v>
       </x:c>
-    </x:row>
-    <x:row r="32" spans="1:20">
+      <x:c r="U31" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:21">
       <x:c r="A32" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E32" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F32" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G32" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H32" s="0" t="n">
         <x:v>260678597</x:v>
       </x:c>
       <x:c r="I32" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J32" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="K32" s="0" t="n">
         <x:v>900</x:v>
       </x:c>
       <x:c r="L32" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M32" s="0" t="n">
         <x:v>24.7</x:v>
       </x:c>
       <x:c r="N32" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O32" s="0" t="n">
         <x:v>24.7</x:v>
       </x:c>
-    </x:row>
-    <x:row r="33" spans="1:20">
+      <x:c r="U32" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:21">
       <x:c r="A33" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F33" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G33" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H33" s="0" t="n">
         <x:v>260664294</x:v>
       </x:c>
       <x:c r="I33" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J33" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="K33" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L33" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="M33" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N33" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="O33" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q33" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="R33" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="S33" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="T33" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="U33" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:21">
+      <x:c r="A34" s="0" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="K33" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L33" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="M33" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N33" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="O33" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q33" s="0" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="R33" s="0" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="S33" s="0" t="s">
+      <x:c r="D34" s="0" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="T33" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:20">
-      <x:c r="A34" s="0" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="D34" s="0" t="s">
-        <x:v>76</x:v>
-      </x:c>
       <x:c r="E34" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F34" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G34" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H34" s="0" t="n">
         <x:v>260678597</x:v>
       </x:c>
       <x:c r="I34" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J34" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="K34" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L34" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M34" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N34" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O34" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q34" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="R34" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="S34" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="T34" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:20">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="U34" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:21">
       <x:c r="A35" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E35" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F35" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G35" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H35" s="0" t="n">
         <x:v>260661275</x:v>
       </x:c>
       <x:c r="I35" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J35" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K35" s="0" t="n">
         <x:v>13168.88</x:v>
       </x:c>
       <x:c r="L35" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M35" s="0" t="n">
         <x:v>234.18</x:v>
       </x:c>
       <x:c r="N35" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O35" s="0" t="n">
         <x:v>234.18</x:v>
       </x:c>
-    </x:row>
-    <x:row r="36" spans="1:20">
+      <x:c r="U35" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:21">
       <x:c r="A36" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E36" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F36" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G36" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
         <x:v>260661275</x:v>
       </x:c>
       <x:c r="I36" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J36" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K36" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L36" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M36" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N36" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O36" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q36" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="R36" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="S36" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="T36" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="1:20">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="U36" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:21">
       <x:c r="A37" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F37" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G37" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H37" s="0" t="n">
         <x:v>260661275</x:v>
       </x:c>
       <x:c r="I37" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J37" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K37" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L37" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M37" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N37" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O37" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q37" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="R37" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="S37" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="T37" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="1:20">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="U37" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:21">
       <x:c r="A38" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E38" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F38" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G38" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H38" s="0" t="n">
         <x:v>260661121</x:v>
       </x:c>
       <x:c r="I38" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J38" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K38" s="0" t="n">
         <x:v>5648</x:v>
       </x:c>
       <x:c r="L38" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M38" s="0" t="n">
         <x:v>100.44</x:v>
       </x:c>
       <x:c r="N38" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O38" s="0" t="n">
         <x:v>100.44</x:v>
       </x:c>
-    </x:row>
-    <x:row r="39" spans="1:20">
+      <x:c r="U38" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:21">
       <x:c r="A39" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F39" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G39" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H39" s="0" t="n">
         <x:v>260661121</x:v>
       </x:c>
       <x:c r="I39" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J39" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K39" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L39" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M39" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N39" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O39" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q39" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="R39" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="S39" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T39" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:20">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="U39" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:21">
       <x:c r="A40" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F40" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G40" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H40" s="0" t="n">
         <x:v>260636938</x:v>
       </x:c>
       <x:c r="I40" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J40" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="K40" s="0" t="n">
         <x:v>187.2</x:v>
       </x:c>
       <x:c r="L40" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M40" s="0" t="n">
         <x:v>138.74</x:v>
       </x:c>
       <x:c r="N40" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O40" s="0" t="n">
         <x:v>138.74</x:v>
       </x:c>
-    </x:row>
-    <x:row r="41" spans="1:20">
+      <x:c r="U40" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:21">
       <x:c r="A41" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F41" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G41" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H41" s="0" t="n">
         <x:v>260636938</x:v>
       </x:c>
       <x:c r="I41" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J41" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="K41" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L41" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M41" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N41" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O41" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q41" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="R41" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="S41" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="T41" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:20">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="U41" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:21">
       <x:c r="A42" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E42" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F42" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G42" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H42" s="0" t="n">
         <x:v>260678840</x:v>
       </x:c>
       <x:c r="I42" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J42" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K42" s="0" t="n">
         <x:v>7538</x:v>
       </x:c>
       <x:c r="L42" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M42" s="0" t="n">
         <x:v>134.05</x:v>
       </x:c>
       <x:c r="N42" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O42" s="0" t="n">
         <x:v>134.05</x:v>
       </x:c>
-    </x:row>
-    <x:row r="43" spans="1:20">
+      <x:c r="U42" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:21">
       <x:c r="A43" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E43" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F43" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G43" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H43" s="0" t="n">
         <x:v>260678840</x:v>
       </x:c>
       <x:c r="I43" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J43" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K43" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L43" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M43" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N43" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O43" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q43" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="R43" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="S43" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T43" s="0" t="s">
-        <x:v>95</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="1:20">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="U43" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:21">
       <x:c r="A44" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D44" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E44" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F44" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G44" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H44" s="0" t="n">
         <x:v>260661119</x:v>
       </x:c>
       <x:c r="I44" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J44" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K44" s="0" t="n">
         <x:v>2413.12</x:v>
       </x:c>
       <x:c r="L44" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M44" s="0" t="n">
         <x:v>42.91</x:v>
       </x:c>
       <x:c r="N44" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O44" s="0" t="n">
         <x:v>42.91</x:v>
       </x:c>
-    </x:row>
-    <x:row r="45" spans="1:20">
+      <x:c r="U44" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:21">
       <x:c r="A45" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D45" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E45" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F45" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G45" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H45" s="0" t="n">
         <x:v>260661119</x:v>
       </x:c>
       <x:c r="I45" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J45" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K45" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L45" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M45" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N45" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O45" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q45" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="R45" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="S45" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T45" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="46" spans="1:20">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="U45" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:21">
       <x:c r="A46" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E46" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F46" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G46" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H46" s="0" t="n">
         <x:v>260659879</x:v>
       </x:c>
       <x:c r="I46" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J46" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="K46" s="0" t="n">
         <x:v>207</x:v>
       </x:c>
       <x:c r="L46" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M46" s="0" t="n">
         <x:v>207</x:v>
       </x:c>
       <x:c r="N46" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O46" s="0" t="n">
         <x:v>207</x:v>
       </x:c>
-    </x:row>
-    <x:row r="47" spans="1:20">
+      <x:c r="U46" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:21">
       <x:c r="A47" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D47" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E47" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F47" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G47" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H47" s="0" t="n">
         <x:v>260659879</x:v>
       </x:c>
       <x:c r="I47" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J47" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="K47" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L47" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M47" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N47" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O47" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q47" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="R47" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="S47" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="T47" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="48" spans="1:20">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="U47" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:21">
       <x:c r="A48" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D48" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E48" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F48" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G48" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H48" s="0" t="n">
         <x:v>260653163</x:v>
       </x:c>
       <x:c r="I48" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J48" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="K48" s="0" t="n">
         <x:v>131.19</x:v>
       </x:c>
       <x:c r="L48" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M48" s="0" t="n">
         <x:v>131.19</x:v>
       </x:c>
       <x:c r="N48" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O48" s="0" t="n">
         <x:v>131.19</x:v>
       </x:c>
-    </x:row>
-    <x:row r="49" spans="1:20">
+      <x:c r="U48" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:21">
       <x:c r="A49" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D49" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E49" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F49" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G49" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H49" s="0" t="n">
         <x:v>260653163</x:v>
       </x:c>
       <x:c r="I49" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J49" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="K49" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L49" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M49" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N49" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O49" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q49" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="R49" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="S49" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="T49" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="50" spans="1:20">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="U49" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:21">
       <x:c r="A50" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D50" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E50" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F50" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G50" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H50" s="0" t="n">
         <x:v>260649684</x:v>
       </x:c>
       <x:c r="I50" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J50" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="K50" s="0" t="n">
         <x:v>496</x:v>
       </x:c>
       <x:c r="L50" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M50" s="0" t="n">
         <x:v>104.85</x:v>
       </x:c>
       <x:c r="N50" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O50" s="0" t="n">
         <x:v>104.85</x:v>
       </x:c>
-    </x:row>
-    <x:row r="51" spans="1:20">
+      <x:c r="U50" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:21">
       <x:c r="A51" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D51" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E51" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F51" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G51" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H51" s="0" t="n">
         <x:v>260649684</x:v>
       </x:c>
       <x:c r="I51" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J51" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="K51" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L51" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M51" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N51" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O51" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q51" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="R51" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="S51" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="T51" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="52" spans="1:20">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="U51" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:21">
       <x:c r="A52" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C52" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D52" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E52" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F52" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G52" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H52" s="0" t="n">
         <x:v>260637117</x:v>
       </x:c>
       <x:c r="I52" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J52" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="K52" s="0" t="n">
         <x:v>652</x:v>
       </x:c>
       <x:c r="L52" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M52" s="0" t="n">
         <x:v>652</x:v>
       </x:c>
       <x:c r="N52" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O52" s="0" t="n">
         <x:v>652</x:v>
       </x:c>
-    </x:row>
-    <x:row r="53" spans="1:20">
+      <x:c r="U52" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:21">
       <x:c r="A53" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D53" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E53" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F53" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G53" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H53" s="0" t="n">
         <x:v>260637117</x:v>
       </x:c>
       <x:c r="I53" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J53" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="K53" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L53" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M53" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N53" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O53" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q53" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="R53" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="S53" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="T53" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="54" spans="1:20">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="U53" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:21">
       <x:c r="A54" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D54" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E54" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F54" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G54" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H54" s="0" t="n">
         <x:v>260637117</x:v>
       </x:c>
       <x:c r="I54" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J54" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="K54" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L54" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M54" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N54" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O54" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q54" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="R54" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="S54" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="T54" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="55" spans="1:20">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="U54" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:21">
       <x:c r="A55" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D55" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E55" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F55" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G55" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H55" s="0" t="n">
         <x:v>260637117</x:v>
       </x:c>
       <x:c r="I55" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J55" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="K55" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L55" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M55" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N55" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O55" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q55" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="R55" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="S55" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="T55" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="U55" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:21">
+      <x:c r="A56" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D56" s="0" t="s">
         <x:v>110</x:v>
       </x:c>
-      <x:c r="R55" s="0" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="S55" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="T55" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="56" spans="1:20">
-      <x:c r="A56" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D56" s="0" t="s">
-        <x:v>106</x:v>
-      </x:c>
       <x:c r="E56" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F56" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G56" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H56" s="0" t="n">
         <x:v>260637117</x:v>
       </x:c>
       <x:c r="I56" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J56" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="K56" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L56" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M56" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N56" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O56" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q56" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="R56" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="S56" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="T56" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="57" spans="1:20">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="U56" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:21">
       <x:c r="A57" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C57" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D57" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E57" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F57" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G57" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H57" s="0" t="n">
         <x:v>260659759</x:v>
       </x:c>
       <x:c r="I57" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J57" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K57" s="0" t="n">
         <x:v>4979</x:v>
       </x:c>
       <x:c r="L57" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M57" s="0" t="n">
         <x:v>88.54</x:v>
       </x:c>
       <x:c r="N57" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O57" s="0" t="n">
         <x:v>88.54</x:v>
       </x:c>
-    </x:row>
-    <x:row r="58" spans="1:20">
+      <x:c r="U57" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:21">
       <x:c r="A58" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D58" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E58" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F58" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G58" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H58" s="0" t="n">
         <x:v>260659759</x:v>
       </x:c>
       <x:c r="I58" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J58" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K58" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L58" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M58" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N58" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O58" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q58" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="R58" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="S58" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T58" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="59" spans="1:20">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="U58" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:21">
       <x:c r="A59" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C59" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D59" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E59" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F59" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G59" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H59" s="0" t="n">
         <x:v>260661123</x:v>
       </x:c>
       <x:c r="I59" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J59" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="K59" s="0" t="n">
         <x:v>131.19</x:v>
       </x:c>
       <x:c r="L59" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M59" s="0" t="n">
         <x:v>131.19</x:v>
       </x:c>
       <x:c r="N59" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O59" s="0" t="n">
         <x:v>131.19</x:v>
       </x:c>
-    </x:row>
-    <x:row r="60" spans="1:20">
+      <x:c r="U59" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:21">
       <x:c r="A60" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D60" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E60" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F60" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G60" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H60" s="0" t="n">
         <x:v>260661123</x:v>
       </x:c>
       <x:c r="I60" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J60" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="K60" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L60" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M60" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N60" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O60" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q60" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="R60" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="S60" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="T60" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="61" spans="1:20">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="U60" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:21">
       <x:c r="A61" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C61" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D61" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E61" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F61" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G61" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H61" s="0" t="n">
         <x:v>260664239</x:v>
       </x:c>
       <x:c r="I61" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J61" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K61" s="0" t="n">
         <x:v>6548</x:v>
       </x:c>
       <x:c r="L61" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M61" s="0" t="n">
         <x:v>116.44</x:v>
       </x:c>
       <x:c r="N61" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O61" s="0" t="n">
         <x:v>116.44</x:v>
       </x:c>
-    </x:row>
-    <x:row r="62" spans="1:20">
+      <x:c r="U61" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:21">
       <x:c r="A62" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D62" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E62" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F62" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G62" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H62" s="0" t="n">
         <x:v>260664239</x:v>
       </x:c>
       <x:c r="I62" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J62" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K62" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L62" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M62" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N62" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O62" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q62" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="R62" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="S62" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T62" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="63" spans="1:20">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="U62" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:21">
       <x:c r="A63" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C63" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D63" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E63" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F63" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G63" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H63" s="0" t="n">
         <x:v>260665644</x:v>
       </x:c>
       <x:c r="I63" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J63" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="K63" s="0" t="n">
         <x:v>462.38</x:v>
       </x:c>
       <x:c r="L63" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M63" s="0" t="n">
         <x:v>462.38</x:v>
       </x:c>
       <x:c r="N63" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O63" s="0" t="n">
         <x:v>462.38</x:v>
       </x:c>
-    </x:row>
-    <x:row r="64" spans="1:20">
+      <x:c r="U63" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:21">
       <x:c r="A64" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D64" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E64" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F64" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G64" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H64" s="0" t="n">
         <x:v>260665644</x:v>
       </x:c>
       <x:c r="I64" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J64" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="K64" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L64" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M64" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N64" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O64" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q64" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="R64" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="S64" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="T64" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="65" spans="1:20">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="U64" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:21">
       <x:c r="A65" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D65" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E65" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F65" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G65" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H65" s="0" t="n">
         <x:v>260665644</x:v>
       </x:c>
       <x:c r="I65" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J65" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="K65" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L65" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M65" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N65" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O65" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q65" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="R65" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="S65" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="T65" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="66" spans="1:20">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="U65" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:21">
       <x:c r="A66" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C66" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D66" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E66" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F66" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G66" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H66" s="0" t="n">
         <x:v>260671274</x:v>
       </x:c>
       <x:c r="I66" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J66" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="K66" s="0" t="n">
         <x:v>251.19</x:v>
       </x:c>
       <x:c r="L66" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M66" s="0" t="n">
         <x:v>251.19</x:v>
       </x:c>
       <x:c r="N66" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O66" s="0" t="n">
         <x:v>251.19</x:v>
       </x:c>
-    </x:row>
-    <x:row r="67" spans="1:20">
+      <x:c r="U66" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:21">
       <x:c r="A67" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D67" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E67" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F67" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G67" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H67" s="0" t="n">
         <x:v>260671274</x:v>
       </x:c>
       <x:c r="I67" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J67" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="K67" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L67" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M67" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N67" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O67" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q67" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="R67" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="S67" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="T67" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="68" spans="1:20">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="U67" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:21">
       <x:c r="A68" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C68" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D68" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="E68" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F68" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G68" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H68" s="0" t="n">
         <x:v>260651686</x:v>
       </x:c>
       <x:c r="I68" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J68" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K68" s="0" t="n">
         <x:v>4332</x:v>
       </x:c>
       <x:c r="L68" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M68" s="0" t="n">
         <x:v>77.04</x:v>
       </x:c>
       <x:c r="N68" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O68" s="0" t="n">
         <x:v>77.04</x:v>
       </x:c>
-    </x:row>
-    <x:row r="69" spans="1:20">
+      <x:c r="U68" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:21">
       <x:c r="A69" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D69" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="E69" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F69" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G69" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H69" s="0" t="n">
         <x:v>260651686</x:v>
       </x:c>
       <x:c r="I69" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J69" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K69" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L69" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M69" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N69" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O69" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q69" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="R69" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="S69" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T69" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="70" spans="1:20">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="U69" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:21">
       <x:c r="A70" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C70" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D70" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="E70" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F70" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G70" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H70" s="0" t="n">
         <x:v>260639391</x:v>
       </x:c>
       <x:c r="I70" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J70" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K70" s="0" t="n">
         <x:v>11948</x:v>
       </x:c>
       <x:c r="L70" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M70" s="0" t="n">
         <x:v>212.47</x:v>
       </x:c>
       <x:c r="N70" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O70" s="0" t="n">
         <x:v>212.47</x:v>
       </x:c>
-    </x:row>
-    <x:row r="71" spans="1:20">
+      <x:c r="U70" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:21">
       <x:c r="A71" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D71" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="E71" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F71" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G71" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H71" s="0" t="n">
         <x:v>260639391</x:v>
       </x:c>
       <x:c r="I71" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J71" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K71" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L71" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M71" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N71" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O71" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q71" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="R71" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="S71" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T71" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="72" spans="1:20">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="U71" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:21">
       <x:c r="A72" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C72" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D72" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="E72" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F72" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G72" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H72" s="0" t="n">
         <x:v>260661118</x:v>
       </x:c>
       <x:c r="I72" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J72" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="K72" s="0" t="n">
         <x:v>142.2</x:v>
       </x:c>
       <x:c r="L72" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M72" s="0" t="n">
         <x:v>105.39</x:v>
       </x:c>
       <x:c r="N72" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O72" s="0" t="n">
         <x:v>105.39</x:v>
       </x:c>
-    </x:row>
-    <x:row r="73" spans="1:20">
+      <x:c r="U72" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:21">
       <x:c r="A73" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D73" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="E73" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F73" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G73" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H73" s="0" t="n">
         <x:v>260661118</x:v>
       </x:c>
       <x:c r="I73" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J73" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="K73" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L73" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M73" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N73" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O73" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q73" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="R73" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="S73" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="T73" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="74" spans="1:20">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="U73" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:21">
       <x:c r="A74" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C74" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D74" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="E74" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F74" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G74" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H74" s="0" t="n">
         <x:v>260637466</x:v>
       </x:c>
       <x:c r="I74" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J74" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K74" s="0" t="n">
         <x:v>9560.48</x:v>
       </x:c>
       <x:c r="L74" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M74" s="0" t="n">
         <x:v>170.02</x:v>
       </x:c>
       <x:c r="N74" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O74" s="0" t="n">
         <x:v>170.02</x:v>
       </x:c>
-    </x:row>
-    <x:row r="75" spans="1:20">
+      <x:c r="U74" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:21">
       <x:c r="A75" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D75" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="E75" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F75" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G75" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H75" s="0" t="n">
         <x:v>260637466</x:v>
       </x:c>
       <x:c r="I75" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J75" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K75" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L75" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M75" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N75" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O75" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q75" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="R75" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="S75" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="T75" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="76" spans="1:20">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="U75" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:21">
       <x:c r="A76" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D76" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="E76" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F76" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G76" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H76" s="0" t="n">
         <x:v>260637466</x:v>
       </x:c>
       <x:c r="I76" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J76" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K76" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L76" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M76" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N76" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O76" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q76" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="R76" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="S76" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="T76" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="U76" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:21">
+      <x:c r="A77" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D77" s="0" t="s">
         <x:v>142</x:v>
       </x:c>
-      <x:c r="S76" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="T76" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="77" spans="1:20">
-      <x:c r="A77" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D77" s="0" t="s">
-        <x:v>138</x:v>
-      </x:c>
       <x:c r="E77" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F77" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G77" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H77" s="0" t="n">
         <x:v>260637466</x:v>
       </x:c>
       <x:c r="I77" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J77" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K77" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L77" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M77" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N77" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O77" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q77" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="R77" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="S77" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="T77" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="78" spans="1:20">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="U77" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:21">
       <x:c r="A78" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D78" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="E78" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F78" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G78" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H78" s="0" t="n">
         <x:v>260637466</x:v>
       </x:c>
       <x:c r="I78" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J78" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K78" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L78" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M78" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N78" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O78" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q78" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="R78" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="S78" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="T78" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="79" spans="1:20">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="U78" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:21">
       <x:c r="A79" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C79" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D79" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E79" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F79" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G79" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H79" s="0" t="n">
         <x:v>260676064</x:v>
       </x:c>
       <x:c r="I79" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J79" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K79" s="0" t="n">
         <x:v>5648</x:v>
       </x:c>
       <x:c r="L79" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M79" s="0" t="n">
         <x:v>100.44</x:v>
       </x:c>
       <x:c r="N79" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O79" s="0" t="n">
         <x:v>100.44</x:v>
       </x:c>
-    </x:row>
-    <x:row r="80" spans="1:20">
+      <x:c r="U79" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:21">
       <x:c r="A80" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D80" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E80" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F80" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G80" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H80" s="0" t="n">
         <x:v>260676064</x:v>
       </x:c>
       <x:c r="I80" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J80" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K80" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L80" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M80" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N80" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O80" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q80" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="R80" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="S80" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T80" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="81" spans="1:20">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="U80" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:21">
       <x:c r="A81" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C81" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D81" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="E81" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F81" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G81" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H81" s="0" t="n">
         <x:v>260670082</x:v>
       </x:c>
       <x:c r="I81" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J81" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K81" s="0" t="n">
         <x:v>5648</x:v>
       </x:c>
       <x:c r="L81" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M81" s="0" t="n">
         <x:v>100.44</x:v>
       </x:c>
       <x:c r="N81" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O81" s="0" t="n">
         <x:v>100.44</x:v>
       </x:c>
-    </x:row>
-    <x:row r="82" spans="1:20">
+      <x:c r="U81" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:21">
       <x:c r="A82" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D82" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="E82" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F82" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G82" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H82" s="0" t="n">
         <x:v>260670082</x:v>
       </x:c>
       <x:c r="I82" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J82" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K82" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L82" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M82" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N82" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O82" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q82" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="R82" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="S82" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T82" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="83" spans="1:20">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="U82" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:21">
       <x:c r="A83" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B83" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C83" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D83" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="E83" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F83" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G83" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H83" s="0" t="n">
         <x:v>260644395</x:v>
       </x:c>
       <x:c r="I83" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J83" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K83" s="0" t="n">
         <x:v>5648</x:v>
       </x:c>
       <x:c r="L83" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M83" s="0" t="n">
         <x:v>100.44</x:v>
       </x:c>
       <x:c r="N83" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O83" s="0" t="n">
         <x:v>100.44</x:v>
       </x:c>
-    </x:row>
-    <x:row r="84" spans="1:20">
+      <x:c r="U83" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:21">
       <x:c r="A84" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D84" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="E84" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F84" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G84" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H84" s="0" t="n">
         <x:v>260644395</x:v>
       </x:c>
       <x:c r="I84" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J84" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K84" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L84" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M84" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N84" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O84" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q84" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="R84" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="S84" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T84" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="85" spans="1:20">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="U84" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:21">
       <x:c r="A85" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B85" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C85" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D85" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="E85" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F85" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G85" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H85" s="0" t="n">
         <x:v>260666125</x:v>
       </x:c>
       <x:c r="I85" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J85" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K85" s="0" t="n">
         <x:v>33596</x:v>
       </x:c>
       <x:c r="L85" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M85" s="0" t="n">
         <x:v>597.44</x:v>
       </x:c>
       <x:c r="N85" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O85" s="0" t="n">
         <x:v>597.44</x:v>
       </x:c>
-    </x:row>
-    <x:row r="86" spans="1:20">
+      <x:c r="U85" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:21">
       <x:c r="A86" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D86" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="E86" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F86" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G86" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H86" s="0" t="n">
         <x:v>260666125</x:v>
       </x:c>
       <x:c r="I86" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J86" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K86" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L86" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M86" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N86" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O86" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q86" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="R86" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="S86" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T86" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="87" spans="1:20">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="U86" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:21">
       <x:c r="A87" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D87" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="E87" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F87" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G87" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H87" s="0" t="n">
         <x:v>260666125</x:v>
       </x:c>
       <x:c r="I87" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J87" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K87" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L87" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M87" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N87" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O87" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q87" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="R87" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="S87" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T87" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="88" spans="1:20">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="U87" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:21">
       <x:c r="A88" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B88" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C88" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D88" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="E88" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F88" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G88" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H88" s="0" t="n">
         <x:v>260663907</x:v>
       </x:c>
       <x:c r="I88" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J88" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K88" s="0" t="n">
         <x:v>6548</x:v>
       </x:c>
       <x:c r="L88" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M88" s="0" t="n">
         <x:v>116.44</x:v>
       </x:c>
       <x:c r="N88" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O88" s="0" t="n">
         <x:v>116.44</x:v>
       </x:c>
-    </x:row>
-    <x:row r="89" spans="1:20">
+      <x:c r="U88" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:21">
       <x:c r="A89" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D89" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="E89" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F89" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G89" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H89" s="0" t="n">
         <x:v>260663907</x:v>
       </x:c>
       <x:c r="I89" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J89" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K89" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L89" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M89" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N89" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O89" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q89" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="R89" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="S89" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T89" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="90" spans="1:20">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="U89" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:21">
       <x:c r="A90" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B90" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C90" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D90" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="E90" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F90" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G90" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H90" s="0" t="n">
         <x:v>260660276</x:v>
       </x:c>
       <x:c r="I90" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J90" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K90" s="0" t="n">
         <x:v>4225.24</x:v>
       </x:c>
       <x:c r="L90" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M90" s="0" t="n">
         <x:v>75.14</x:v>
       </x:c>
       <x:c r="N90" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O90" s="0" t="n">
         <x:v>75.14</x:v>
       </x:c>
-    </x:row>
-    <x:row r="91" spans="1:20">
+      <x:c r="U90" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:21">
       <x:c r="A91" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D91" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="E91" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F91" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G91" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H91" s="0" t="n">
         <x:v>260660276</x:v>
       </x:c>
       <x:c r="I91" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J91" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K91" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L91" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M91" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N91" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O91" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q91" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="R91" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="S91" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T91" s="0" t="s">
-        <x:v>162</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="92" spans="1:20">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="U91" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:21">
       <x:c r="A92" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D92" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="E92" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F92" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G92" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H92" s="0" t="n">
         <x:v>260660276</x:v>
       </x:c>
       <x:c r="I92" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J92" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K92" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L92" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M92" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N92" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O92" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q92" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="R92" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="S92" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="T92" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="93" spans="1:20">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="U92" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:21">
       <x:c r="A93" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B93" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C93" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D93" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="E93" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F93" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G93" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H93" s="0" t="n">
         <x:v>260663962</x:v>
       </x:c>
       <x:c r="I93" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J93" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K93" s="0" t="n">
         <x:v>13096</x:v>
       </x:c>
       <x:c r="L93" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M93" s="0" t="n">
         <x:v>232.89</x:v>
       </x:c>
       <x:c r="N93" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O93" s="0" t="n">
         <x:v>232.89</x:v>
       </x:c>
-    </x:row>
-    <x:row r="94" spans="1:20">
+      <x:c r="U93" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:21">
       <x:c r="A94" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D94" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="E94" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F94" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G94" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H94" s="0" t="n">
         <x:v>260663962</x:v>
       </x:c>
       <x:c r="I94" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J94" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K94" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L94" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M94" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N94" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O94" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q94" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="R94" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="S94" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T94" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="95" spans="1:20">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="U94" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="1:21">
       <x:c r="A95" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D95" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="E95" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F95" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G95" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H95" s="0" t="n">
         <x:v>260663962</x:v>
       </x:c>
       <x:c r="I95" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J95" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K95" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L95" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M95" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N95" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O95" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q95" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="R95" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="S95" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T95" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="96" spans="1:20">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="U95" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:21">
       <x:c r="A96" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B96" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C96" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D96" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="E96" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F96" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G96" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H96" s="0" t="n">
         <x:v>260672089</x:v>
       </x:c>
       <x:c r="I96" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J96" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K96" s="0" t="n">
         <x:v>3482.24</x:v>
       </x:c>
       <x:c r="L96" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M96" s="0" t="n">
         <x:v>61.93</x:v>
       </x:c>
       <x:c r="N96" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O96" s="0" t="n">
         <x:v>61.93</x:v>
       </x:c>
-    </x:row>
-    <x:row r="97" spans="1:20">
+      <x:c r="U96" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:21">
       <x:c r="A97" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D97" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="E97" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F97" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G97" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H97" s="0" t="n">
         <x:v>260672089</x:v>
       </x:c>
       <x:c r="I97" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J97" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K97" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L97" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M97" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N97" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O97" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q97" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="R97" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="S97" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T97" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="98" spans="1:20">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="U97" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:21">
       <x:c r="A98" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D98" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="E98" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F98" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G98" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H98" s="0" t="n">
         <x:v>260672089</x:v>
       </x:c>
       <x:c r="I98" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J98" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K98" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L98" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M98" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N98" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O98" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q98" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="R98" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="S98" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T98" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="99" spans="1:20">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="U98" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="1:21">
       <x:c r="A99" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B99" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C99" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D99" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E99" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F99" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G99" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H99" s="0" t="n">
         <x:v>260664291</x:v>
       </x:c>
       <x:c r="I99" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J99" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K99" s="0" t="n">
         <x:v>15096</x:v>
       </x:c>
       <x:c r="L99" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M99" s="0" t="n">
         <x:v>268.46</x:v>
       </x:c>
       <x:c r="N99" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O99" s="0" t="n">
         <x:v>268.46</x:v>
       </x:c>
-    </x:row>
-    <x:row r="100" spans="1:20">
+      <x:c r="U99" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100" spans="1:21">
       <x:c r="A100" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D100" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E100" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F100" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G100" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H100" s="0" t="n">
         <x:v>260664291</x:v>
       </x:c>
       <x:c r="I100" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J100" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K100" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L100" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M100" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N100" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O100" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q100" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="R100" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="S100" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T100" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="101" spans="1:20">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="U100" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="1:21">
       <x:c r="A101" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D101" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E101" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F101" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G101" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H101" s="0" t="n">
         <x:v>260664291</x:v>
       </x:c>
       <x:c r="I101" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J101" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K101" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L101" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="M101" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="N101" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O101" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q101" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="R101" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="S101" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T101" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="U101" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
     </x:row>
